--- a/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/꽃 길_BIGBANG (빅뱅).xlsx
+++ b/Crawling/music/crawled_data/outlier_data/2022-05-09_2022-05-15/naver_datalab/outliers/꽃 길_BIGBANG (빅뱅).xlsx
@@ -17,7 +17,7 @@
     <t>url</t>
   </si>
   <si>
-    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_ccc87f9e2fe93a3cb6b776c0b865272a</t>
+    <t>http://datalab.naver.com/keyword/trendResult.naver?hashKey=N_a6a80a5033ab7e07df030e105ea48c0a</t>
   </si>
   <si>
     <t>주제</t>
@@ -35,7 +35,7 @@
     <t>기간</t>
   </si>
   <si>
-    <t>일간 : 2022-04-16 ~ 2022-05-16</t>
+    <t>일간 : 2022-04-18 ~ 2022-05-18</t>
   </si>
   <si>
     <t>성별</t>
@@ -56,178 +56,178 @@
     <t>꽃 길</t>
   </si>
   <si>
-    <t>2022-04-16</t>
-  </si>
-  <si>
-    <t>97.15789</t>
-  </si>
-  <si>
-    <t>2022-04-17</t>
+    <t>2022-04-18</t>
+  </si>
+  <si>
+    <t>84.65783</t>
+  </si>
+  <si>
+    <t>2022-04-19</t>
+  </si>
+  <si>
+    <t>2022-04-20</t>
+  </si>
+  <si>
+    <t>83.22295</t>
+  </si>
+  <si>
+    <t>2022-04-21</t>
+  </si>
+  <si>
+    <t>79.47019</t>
+  </si>
+  <si>
+    <t>2022-04-22</t>
+  </si>
+  <si>
+    <t>2022-04-23</t>
+  </si>
+  <si>
+    <t>97.35099</t>
+  </si>
+  <si>
+    <t>2022-04-24</t>
+  </si>
+  <si>
+    <t>86.42384</t>
+  </si>
+  <si>
+    <t>2022-04-25</t>
+  </si>
+  <si>
+    <t>76.60044</t>
+  </si>
+  <si>
+    <t>2022-04-26</t>
+  </si>
+  <si>
+    <t>82.45033</t>
+  </si>
+  <si>
+    <t>2022-04-27</t>
+  </si>
+  <si>
+    <t>75.93818</t>
+  </si>
+  <si>
+    <t>2022-04-28</t>
+  </si>
+  <si>
+    <t>80.7947</t>
+  </si>
+  <si>
+    <t>2022-04-29</t>
+  </si>
+  <si>
+    <t>84.10596</t>
+  </si>
+  <si>
+    <t>2022-04-30</t>
+  </si>
+  <si>
+    <t>83.11258</t>
+  </si>
+  <si>
+    <t>2022-05-01</t>
+  </si>
+  <si>
+    <t>2022-05-02</t>
+  </si>
+  <si>
+    <t>72.7373</t>
+  </si>
+  <si>
+    <t>2022-05-03</t>
+  </si>
+  <si>
+    <t>74.61368</t>
+  </si>
+  <si>
+    <t>2022-05-04</t>
+  </si>
+  <si>
+    <t>2022-05-05</t>
+  </si>
+  <si>
+    <t>71.74392</t>
+  </si>
+  <si>
+    <t>2022-05-06</t>
+  </si>
+  <si>
+    <t>89.51434</t>
+  </si>
+  <si>
+    <t>2022-05-07</t>
   </si>
   <si>
     <t>100.0</t>
   </si>
   <si>
-    <t>2022-04-18</t>
-  </si>
-  <si>
-    <t>80.73684</t>
-  </si>
-  <si>
-    <t>2022-04-19</t>
-  </si>
-  <si>
-    <t>2022-04-20</t>
-  </si>
-  <si>
-    <t>79.36842</t>
-  </si>
-  <si>
-    <t>2022-04-21</t>
-  </si>
-  <si>
-    <t>75.78947</t>
-  </si>
-  <si>
-    <t>2022-04-22</t>
-  </si>
-  <si>
-    <t>2022-04-23</t>
-  </si>
-  <si>
-    <t>92.8421</t>
-  </si>
-  <si>
-    <t>2022-04-24</t>
-  </si>
-  <si>
-    <t>82.42105</t>
-  </si>
-  <si>
-    <t>2022-04-25</t>
-  </si>
-  <si>
-    <t>73.05263</t>
-  </si>
-  <si>
-    <t>2022-04-26</t>
-  </si>
-  <si>
-    <t>78.63157</t>
-  </si>
-  <si>
-    <t>2022-04-27</t>
-  </si>
-  <si>
-    <t>72.42105</t>
-  </si>
-  <si>
-    <t>2022-04-28</t>
-  </si>
-  <si>
-    <t>77.05263</t>
-  </si>
-  <si>
-    <t>2022-04-29</t>
-  </si>
-  <si>
-    <t>80.21052</t>
-  </si>
-  <si>
-    <t>2022-04-30</t>
-  </si>
-  <si>
-    <t>79.26315</t>
-  </si>
-  <si>
-    <t>2022-05-01</t>
-  </si>
-  <si>
-    <t>2022-05-02</t>
-  </si>
-  <si>
-    <t>69.36842</t>
-  </si>
-  <si>
-    <t>2022-05-03</t>
-  </si>
-  <si>
-    <t>71.15789</t>
-  </si>
-  <si>
-    <t>2022-05-04</t>
-  </si>
-  <si>
-    <t>2022-05-05</t>
-  </si>
-  <si>
-    <t>68.42105</t>
-  </si>
-  <si>
-    <t>2022-05-06</t>
-  </si>
-  <si>
-    <t>85.36842</t>
-  </si>
-  <si>
-    <t>2022-05-07</t>
-  </si>
-  <si>
-    <t>95.36842</t>
-  </si>
-  <si>
     <t>2022-05-08</t>
   </si>
   <si>
-    <t>86.42105</t>
+    <t>90.6181</t>
   </si>
   <si>
     <t>2022-05-09</t>
   </si>
   <si>
-    <t>68.21052</t>
+    <t>71.52317</t>
   </si>
   <si>
     <t>2022-05-10</t>
   </si>
   <si>
-    <t>70.73684</t>
+    <t>74.17218</t>
   </si>
   <si>
     <t>2022-05-11</t>
   </si>
   <si>
-    <t>65.68421</t>
+    <t>68.87417</t>
   </si>
   <si>
     <t>2022-05-12</t>
   </si>
   <si>
-    <t>71.47368</t>
+    <t>74.94481</t>
   </si>
   <si>
     <t>2022-05-13</t>
   </si>
   <si>
-    <t>75.15789</t>
+    <t>78.80794</t>
   </si>
   <si>
     <t>2022-05-14</t>
   </si>
   <si>
-    <t>71.57894</t>
+    <t>75.05518</t>
   </si>
   <si>
     <t>2022-05-15</t>
   </si>
   <si>
-    <t>64.94736</t>
+    <t>68.10154</t>
   </si>
   <si>
     <t>2022-05-16</t>
   </si>
   <si>
-    <t>63.36842</t>
+    <t>66.44591</t>
+  </si>
+  <si>
+    <t>2022-05-17</t>
+  </si>
+  <si>
+    <t>65.78366</t>
+  </si>
+  <si>
+    <t>2022-05-18</t>
+  </si>
+  <si>
+    <t>64.34878</t>
   </si>
 </sst>
 </file>
@@ -347,23 +347,23 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -371,23 +371,23 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15">
@@ -443,23 +443,23 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24">
@@ -467,23 +467,23 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27">
